--- a/medicine/Mort/Hevra_Kaddisha/Hevra_Kaddisha.xlsx
+++ b/medicine/Mort/Hevra_Kaddisha/Hevra_Kaddisha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hevra kaddisha (hébreu : חברה קדישא, "Assemblée sainte" ou "Assemblée de sainteté", Société du dernier devoir en France ; plur. hevrot kaddisha) est une société librement structurée mais assez organisée et fermée, faisant office de pompes funèbres, composée de membres Juifs, qui s'occupent de préparer les corps des défunts juifs conformément aux rites de la Halakha (Loi juive) et veillent à ce qu'ils ne soient pas profanés (volontairement ou non) jusqu'à l'enterrement.
 Deux exigences fondamentales sont de montrer le respect approprié au corps, et le nettoyage rituel du corps, avant son habillement pour l'enterrement.
